--- a/dtpu_configurations/only_integer64/50mhz/mxu_3x3/power.xlsx
+++ b/dtpu_configurations/only_integer64/50mhz/mxu_3x3/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.01615050807595253</v>
+        <v>0.025914516299962997</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.009724335744976997</v>
+        <v>0.009059031493961811</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.006574301049113274</v>
+        <v>0.006718204822391272</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0032813120633363724</v>
+        <v>0.005600896663963795</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.994259375554975E-6</v>
+        <v>6.47206945814105E-8</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0010700530838221312</v>
+        <v>0.0017580282874405384</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>9.700000518932939E-4</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12523117661476135</v>
+        <v>0.12744049727916718</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4218345880508423</v>
+        <v>1.4362910985946655</v>
       </c>
     </row>
   </sheetData>
